--- a/data/interval_list.xlsx
+++ b/data/interval_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanaj\Documents\GitHub\py-encoder-src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanaj\Documents\GitHub\py-encoder\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C9949C-8301-4305-8629-1E859D016E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEADDAA7-DA36-4196-BA5F-EA887B9BF189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="2985" windowWidth="15300" windowHeight="7785" xr2:uid="{A843F7DC-4888-427C-8F73-038D13A741B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{A843F7DC-4888-427C-8F73-038D13A741B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -775,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3C2E9F-2458-4295-BD47-8BC6B3667658}">
   <dimension ref="A1:B108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J91" sqref="J91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1514,10 +1514,10 @@
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="10" t="s">
+      <c r="A92" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="B92" s="5" t="s">
         <v>94</v>
       </c>
     </row>

--- a/data/interval_list.xlsx
+++ b/data/interval_list.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanaj\Documents\GitHub\py-encoder-src\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DA3B48-9E07-48DD-B77B-21020B75804B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="112">
   <si>
     <t>valid_interval</t>
   </si>
@@ -347,13 +353,15 @@
   </si>
   <si>
     <t>END</t>
+  </si>
+  <si>
+    <t>10years</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -376,7 +384,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -385,12 +393,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffff00"/>
+        <fgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFff0000"/>
+        <fgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -411,16 +425,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -428,32 +442,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -464,10 +484,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -505,71 +525,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -597,7 +617,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -620,11 +640,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -633,13 +653,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -649,7 +669,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -658,7 +678,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -667,7 +687,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -675,10 +695,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -743,21 +763,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B108"/>
+  <dimension ref="A1:B109"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="H105" sqref="H105"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="23.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="23.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="2" width="23.5703125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -765,7 +786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -773,7 +794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -781,7 +802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -789,7 +810,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -797,7 +818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -805,7 +826,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -813,7 +834,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -821,7 +842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -829,7 +850,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -837,7 +858,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -845,7 +866,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -853,7 +874,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -861,7 +882,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -869,7 +890,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -877,7 +898,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -885,7 +906,7 @@
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -893,7 +914,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -901,7 +922,7 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -909,7 +930,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -917,7 +938,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
@@ -925,7 +946,7 @@
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
@@ -933,7 +954,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
@@ -941,7 +962,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
@@ -949,7 +970,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
@@ -957,7 +978,7 @@
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
@@ -965,7 +986,7 @@
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
@@ -973,7 +994,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
@@ -981,7 +1002,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
@@ -989,7 +1010,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
@@ -997,7 +1018,7 @@
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
@@ -1005,7 +1026,7 @@
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
@@ -1013,7 +1034,7 @@
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
@@ -1021,7 +1042,7 @@
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
@@ -1029,7 +1050,7 @@
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
@@ -1037,7 +1058,7 @@
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
@@ -1045,7 +1066,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
@@ -1053,7 +1074,7 @@
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row r="38" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
@@ -1061,7 +1082,7 @@
         <v>38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row r="39" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
@@ -1069,7 +1090,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row r="40" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>40</v>
       </c>
@@ -1077,7 +1098,7 @@
         <v>40</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row r="41" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>41</v>
       </c>
@@ -1085,7 +1106,7 @@
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row r="42" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>42</v>
       </c>
@@ -1093,7 +1114,7 @@
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row r="43" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>43</v>
       </c>
@@ -1101,7 +1122,7 @@
         <v>43</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row r="44" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>44</v>
       </c>
@@ -1109,7 +1130,7 @@
         <v>44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row r="45" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>45</v>
       </c>
@@ -1117,7 +1138,7 @@
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row r="46" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>46</v>
       </c>
@@ -1125,7 +1146,7 @@
         <v>46</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row r="47" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>47</v>
       </c>
@@ -1133,7 +1154,7 @@
         <v>47</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row r="48" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>48</v>
       </c>
@@ -1141,7 +1162,7 @@
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row r="49" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>49</v>
       </c>
@@ -1149,7 +1170,7 @@
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row r="50" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>50</v>
       </c>
@@ -1157,7 +1178,7 @@
         <v>50</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row r="51" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>51</v>
       </c>
@@ -1165,7 +1186,7 @@
         <v>51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    <row r="52" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>52</v>
       </c>
@@ -1173,7 +1194,7 @@
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+    <row r="53" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>53</v>
       </c>
@@ -1181,7 +1202,7 @@
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+    <row r="54" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>54</v>
       </c>
@@ -1189,7 +1210,7 @@
         <v>54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+    <row r="55" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>55</v>
       </c>
@@ -1197,7 +1218,7 @@
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+    <row r="56" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>56</v>
       </c>
@@ -1205,7 +1226,7 @@
         <v>56</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+    <row r="57" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>9</v>
       </c>
@@ -1213,7 +1234,7 @@
         <v>57</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+    <row r="58" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>13</v>
       </c>
@@ -1221,7 +1242,7 @@
         <v>58</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+    <row r="59" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>24</v>
       </c>
@@ -1229,7 +1250,7 @@
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+    <row r="60" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>6</v>
       </c>
@@ -1237,7 +1258,7 @@
         <v>60</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+    <row r="61" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>35</v>
       </c>
@@ -1245,7 +1266,7 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+    <row r="62" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>18</v>
       </c>
@@ -1253,7 +1274,7 @@
         <v>62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+    <row r="63" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>40</v>
       </c>
@@ -1261,7 +1282,7 @@
         <v>63</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+    <row r="64" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>38</v>
       </c>
@@ -1269,7 +1290,7 @@
         <v>64</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+    <row r="65" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>24</v>
       </c>
@@ -1277,7 +1298,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+    <row r="66" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>66</v>
       </c>
@@ -1285,7 +1306,7 @@
         <v>66</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+    <row r="67" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>67</v>
       </c>
@@ -1293,7 +1314,7 @@
         <v>67</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+    <row r="68" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>18</v>
       </c>
@@ -1301,7 +1322,7 @@
         <v>68</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+    <row r="69" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>18</v>
       </c>
@@ -1309,7 +1330,7 @@
         <v>62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
+    <row r="70" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>43</v>
       </c>
@@ -1317,7 +1338,7 @@
         <v>69</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
+    <row r="71" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>8</v>
       </c>
@@ -1325,7 +1346,7 @@
         <v>70</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
+    <row r="72" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>12</v>
       </c>
@@ -1333,7 +1354,7 @@
         <v>71</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="19.5">
+    <row r="73" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>7</v>
       </c>
@@ -1341,7 +1362,7 @@
         <v>72</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="19.5">
+    <row r="74" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>38</v>
       </c>
@@ -1349,7 +1370,7 @@
         <v>73</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="19.5">
+    <row r="75" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>74</v>
       </c>
@@ -1357,7 +1378,7 @@
         <v>74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="19.5">
+    <row r="76" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>18</v>
       </c>
@@ -1365,7 +1386,7 @@
         <v>75</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="19.5">
+    <row r="77" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>9</v>
       </c>
@@ -1373,7 +1394,7 @@
         <v>76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="19.5">
+    <row r="78" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>46</v>
       </c>
@@ -1381,7 +1402,7 @@
         <v>77</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="19.5">
+    <row r="79" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>66</v>
       </c>
@@ -1389,7 +1410,7 @@
         <v>78</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5">
+    <row r="80" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>79</v>
       </c>
@@ -1397,7 +1418,7 @@
         <v>80</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5">
+    <row r="81" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>24</v>
       </c>
@@ -1405,7 +1426,7 @@
         <v>81</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="19.5">
+    <row r="82" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>40</v>
       </c>
@@ -1413,7 +1434,7 @@
         <v>82</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="19.5">
+    <row r="83" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>21</v>
       </c>
@@ -1421,7 +1442,7 @@
         <v>83</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="19.5">
+    <row r="84" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>18</v>
       </c>
@@ -1429,7 +1450,7 @@
         <v>84</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="19.5">
+    <row r="85" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>13</v>
       </c>
@@ -1437,7 +1458,7 @@
         <v>85</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="19.5">
+    <row r="86" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>38</v>
       </c>
@@ -1445,7 +1466,7 @@
         <v>86</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="19.5">
+    <row r="87" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>24</v>
       </c>
@@ -1453,7 +1474,7 @@
         <v>87</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="19.5">
+    <row r="88" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>88</v>
       </c>
@@ -1461,7 +1482,7 @@
         <v>89</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="19.5">
+    <row r="89" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>90</v>
       </c>
@@ -1469,7 +1490,7 @@
         <v>91</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="19.5">
+    <row r="90" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>17</v>
       </c>
@@ -1477,7 +1498,7 @@
         <v>92</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="19.5">
+    <row r="91" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>44</v>
       </c>
@@ -1485,7 +1506,7 @@
         <v>93</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="19.5">
+    <row r="92" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>54</v>
       </c>
@@ -1493,7 +1514,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="19.5">
+    <row r="93" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>21</v>
       </c>
@@ -1501,7 +1522,7 @@
         <v>95</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="19.5">
+    <row r="94" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>33</v>
       </c>
@@ -1509,7 +1530,7 @@
         <v>96</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="19.5">
+    <row r="95" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>97</v>
       </c>
@@ -1517,7 +1538,7 @@
         <v>97</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="19.5">
+    <row r="96" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>41</v>
       </c>
@@ -1525,7 +1546,7 @@
         <v>98</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="19.5">
+    <row r="97" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>4</v>
       </c>
@@ -1533,7 +1554,7 @@
         <v>99</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="19.5">
+    <row r="98" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>100</v>
       </c>
@@ -1541,7 +1562,7 @@
         <v>101</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="19.5">
+    <row r="99" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>42</v>
       </c>
@@ -1549,7 +1570,7 @@
         <v>102</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="19.5">
+    <row r="100" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>52</v>
       </c>
@@ -1557,7 +1578,7 @@
         <v>103</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="19.5">
+    <row r="101" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>32</v>
       </c>
@@ -1565,7 +1586,7 @@
         <v>104</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="19.5">
+    <row r="102" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>88</v>
       </c>
@@ -1573,7 +1594,7 @@
         <v>88</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="19.5">
+    <row r="103" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>100</v>
       </c>
@@ -1581,7 +1602,7 @@
         <v>105</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="19.5">
+    <row r="104" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>6</v>
       </c>
@@ -1589,7 +1610,7 @@
         <v>106</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="19.5">
+    <row r="105" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>88</v>
       </c>
@@ -1597,7 +1618,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="19.5">
+    <row r="106" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>6</v>
       </c>
@@ -1605,7 +1626,7 @@
         <v>108</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="19.5">
+    <row r="107" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>66</v>
       </c>
@@ -1613,15 +1634,24 @@
         <v>109</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="19.5">
-      <c r="A108" s="2" t="s">
+    <row r="108" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B109" s="2" t="s">
         <v>110</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/interval_list.xlsx
+++ b/data/interval_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanaj\Documents\GitHub\py-encoder-src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DA3B48-9E07-48DD-B77B-21020B75804B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9702AE-8FA4-43DC-A08E-DC9824283135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2520" yWindow="3525" windowWidth="15300" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="116">
   <si>
     <t>valid_interval</t>
   </si>
@@ -356,6 +356,18 @@
   </si>
   <si>
     <t>10years</t>
+  </si>
+  <si>
+    <t>5YEARS</t>
+  </si>
+  <si>
+    <t>5 YEARS</t>
+  </si>
+  <si>
+    <t>2400 Hours</t>
+  </si>
+  <si>
+    <t>2years</t>
   </si>
 </sst>
 </file>
@@ -384,7 +396,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -404,6 +416,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -460,6 +478,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -767,10 +788,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B109"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="H105" sqref="H105"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="E111" sqref="E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1643,10 +1664,42 @@
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
+      <c r="A109" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B113" s="2" t="s">
         <v>110</v>
       </c>
     </row>

--- a/data/interval_list.xlsx
+++ b/data/interval_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanaj\Documents\GitHub\py-encoder-src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9702AE-8FA4-43DC-A08E-DC9824283135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069EBDE4-4C80-402A-88D5-94626BA4F16C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="3525" windowWidth="15300" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="117">
   <si>
     <t>valid_interval</t>
   </si>
@@ -368,6 +368,9 @@
   </si>
   <si>
     <t>2years</t>
+  </si>
+  <si>
+    <t>24000hours</t>
   </si>
 </sst>
 </file>
@@ -788,10 +791,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B113"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="E111" sqref="E111"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1696,10 +1699,18 @@
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
+      <c r="A113" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B114" s="2" t="s">
         <v>110</v>
       </c>
     </row>

--- a/data/interval_list.xlsx
+++ b/data/interval_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanaj\Documents\GitHub\py-encoder-src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanaj\Documents\GitHub\py-encoder\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069EBDE4-4C80-402A-88D5-94626BA4F16C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18346E23-F68C-4C79-8E9B-1091DACE8C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="118">
   <si>
     <t>valid_interval</t>
   </si>
@@ -371,6 +371,9 @@
   </si>
   <si>
     <t>24000hours</t>
+  </si>
+  <si>
+    <t>44703 Hours</t>
   </si>
 </sst>
 </file>
@@ -791,10 +794,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="F118" sqref="F118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1707,10 +1710,18 @@
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
+      <c r="A114" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B115" s="2" t="s">
         <v>110</v>
       </c>
     </row>

--- a/data/interval_list.xlsx
+++ b/data/interval_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanaj\Documents\GitHub\py-encoder\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanaj\Documents\GitHub\py-encoder-src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18346E23-F68C-4C79-8E9B-1091DACE8C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF07FB9-944D-468E-8573-24EB2F809E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="120">
   <si>
     <t>valid_interval</t>
   </si>
@@ -374,6 +374,12 @@
   </si>
   <si>
     <t>44703 Hours</t>
+  </si>
+  <si>
+    <t>2 Days</t>
+  </si>
+  <si>
+    <t>1 Day</t>
   </si>
 </sst>
 </file>
@@ -796,8 +802,8 @@
   </sheetPr>
   <dimension ref="A1:B115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="F118" sqref="F118"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1231,7 +1237,7 @@
     </row>
     <row r="54" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>54</v>
@@ -1239,7 +1245,7 @@
     </row>
     <row r="55" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>55</v>
@@ -1247,7 +1253,7 @@
     </row>
     <row r="56" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>56</v>

--- a/data/interval_list.xlsx
+++ b/data/interval_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanaj\Documents\GitHub\py-encoder-src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF07FB9-944D-468E-8573-24EB2F809E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D7BDA6-6486-40D1-BBC0-EC958CCDE181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -802,8 +802,8 @@
   </sheetPr>
   <dimension ref="A1:B115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="92" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>94</v>

--- a/data/interval_list.xlsx
+++ b/data/interval_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanaj\Documents\GitHub\py-encoder-src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\py-encoder-src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D7BDA6-6486-40D1-BBC0-EC958CCDE181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79966545-FBDE-4560-813F-2096AEBF592D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-6225" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="119">
   <si>
     <t>valid_interval</t>
   </si>
@@ -350,9 +350,6 @@
   </si>
   <si>
     <t>1 Months</t>
-  </si>
-  <si>
-    <t>END</t>
   </si>
   <si>
     <t>10years</t>
@@ -802,8 +799,8 @@
   </sheetPr>
   <dimension ref="A1:B115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="L105" sqref="L105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1245,7 +1242,7 @@
     </row>
     <row r="55" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>55</v>
@@ -1253,7 +1250,7 @@
     </row>
     <row r="56" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>56</v>
@@ -1672,7 +1669,7 @@
         <v>44</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -1680,7 +1677,7 @@
         <v>18</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1688,15 +1685,15 @@
         <v>18</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -1704,7 +1701,7 @@
         <v>6</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -1712,24 +1709,20 @@
         <v>14</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>110</v>
-      </c>
+      <c r="A115" s="2"/>
+      <c r="B115" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
